--- a/miscellaneous/table_blp_rsn.xlsx
+++ b/miscellaneous/table_blp_rsn.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="473" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="948" uniqueCount="44">
   <si>
     <t>meas</t>
   </si>
@@ -21,7 +21,7 @@
     <t>var_alpha_osci</t>
   </si>
   <si>
-    <t>mean_Beta_bb</t>
+    <t>mean_frac</t>
   </si>
   <si>
     <t>var_beta_mixd</t>
@@ -57,7 +57,7 @@
     <t>var_gamma_mixd</t>
   </si>
   <si>
-    <t>var_Beta_bb</t>
+    <t>var_frac</t>
   </si>
   <si>
     <t>var_delta_mixd</t>
@@ -140,6 +140,12 @@
   <si>
     <t>h_FDR</t>
   </si>
+  <si>
+    <t>vTest</t>
+  </si>
+  <si>
+    <t>vstat</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -201,6 +207,8 @@
     <col min="9" max="9" width="14.7109375" customWidth="true"/>
     <col min="10" max="10" width="13.7109375" customWidth="true"/>
     <col min="11" max="11" width="6.7109375" customWidth="true"/>
+    <col min="12" max="12" width="15.7109375" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -237,6 +245,12 @@
       <c r="K1" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -271,6 +285,12 @@
       </c>
       <c r="K2" s="0">
         <v>1</v>
+      </c>
+      <c r="L2" s="0">
+        <v>2.5762827336064148e-05</v>
+      </c>
+      <c r="M2" s="0">
+        <v>5.211860363686708</v>
       </c>
     </row>
     <row r="3">
@@ -307,6 +327,12 @@
       <c r="K3" s="0">
         <v>1</v>
       </c>
+      <c r="L3" s="0">
+        <v>0.60797285644484833</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.26597362257314955</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -341,6 +367,12 @@
       </c>
       <c r="K4" s="0">
         <v>1</v>
+      </c>
+      <c r="L4" s="0">
+        <v>9.6613304174484718e-05</v>
+      </c>
+      <c r="M4" s="0">
+        <v>4.5659344681198792</v>
       </c>
     </row>
     <row r="5">
@@ -377,6 +409,12 @@
       <c r="K5" s="0">
         <v>1</v>
       </c>
+      <c r="L5" s="0">
+        <v>0.011011177873634358</v>
+      </c>
+      <c r="M5" s="0">
+        <v>6.891675377058367</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
@@ -411,6 +449,12 @@
       </c>
       <c r="K6" s="0">
         <v>1</v>
+      </c>
+      <c r="L6" s="0">
+        <v>7.3971141519727733e-08</v>
+      </c>
+      <c r="M6" s="0">
+        <v>37.771363245396259</v>
       </c>
     </row>
     <row r="7">
@@ -447,6 +491,12 @@
       <c r="K7" s="0">
         <v>1</v>
       </c>
+      <c r="L7" s="0">
+        <v>0.73660592620094012</v>
+      </c>
+      <c r="M7" s="0">
+        <v>0.11420524379701054</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
@@ -482,6 +532,12 @@
       <c r="K8" s="0">
         <v>1</v>
       </c>
+      <c r="L8" s="0">
+        <v>2.576230913399782e-06</v>
+      </c>
+      <c r="M8" s="0">
+        <v>27.086338579426272</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
@@ -517,6 +573,12 @@
       <c r="K9" s="0">
         <v>1</v>
       </c>
+      <c r="L9" s="0">
+        <v>0.43742099062190409</v>
+      </c>
+      <c r="M9" s="0">
+        <v>0.61131139688638658</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
@@ -552,6 +614,12 @@
       <c r="K10" s="0">
         <v>1</v>
       </c>
+      <c r="L10" s="0">
+        <v>0.0067690336629330355</v>
+      </c>
+      <c r="M10" s="0">
+        <v>7.878429023907489</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
@@ -587,6 +655,12 @@
       <c r="K11" s="0">
         <v>1</v>
       </c>
+      <c r="L11" s="0">
+        <v>0.5985994644217757</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0.28013369169253893</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
@@ -622,6 +696,12 @@
       <c r="K12" s="0">
         <v>1</v>
       </c>
+      <c r="L12" s="0">
+        <v>0.0049605777876470464</v>
+      </c>
+      <c r="M12" s="0">
+        <v>8.5221394450079924</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
@@ -657,6 +737,12 @@
       <c r="K13" s="0">
         <v>1</v>
       </c>
+      <c r="L13" s="0">
+        <v>0.53017873857353448</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0.39874185498002757</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
@@ -692,6 +778,12 @@
       <c r="K14" s="0">
         <v>1</v>
       </c>
+      <c r="L14" s="0">
+        <v>1.4075935121890263e-06</v>
+      </c>
+      <c r="M14" s="0">
+        <v>28.811531435330643</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
@@ -727,6 +819,12 @@
       <c r="K15" s="0">
         <v>1</v>
       </c>
+      <c r="L15" s="0">
+        <v>3.3856144825795643e-08</v>
+      </c>
+      <c r="M15" s="0">
+        <v>40.308415308426675</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
@@ -762,6 +860,12 @@
       <c r="K16" s="0">
         <v>1</v>
       </c>
+      <c r="L16" s="0">
+        <v>2.660617396146009e-06</v>
+      </c>
+      <c r="M16" s="0">
+        <v>26.995394321103845</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
@@ -797,6 +901,12 @@
       <c r="K17" s="0">
         <v>1</v>
       </c>
+      <c r="L17" s="0">
+        <v>1.2639919809689778e-08</v>
+      </c>
+      <c r="M17" s="0">
+        <v>43.606907213582566</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
@@ -831,6 +941,12 @@
       </c>
       <c r="K18" s="0">
         <v>1</v>
+      </c>
+      <c r="L18" s="0">
+        <v>6.033301949308423e-05</v>
+      </c>
+      <c r="M18" s="0">
+        <v>18.676548487400254</v>
       </c>
     </row>
     <row r="19">
@@ -867,6 +983,12 @@
       <c r="K19" s="0">
         <v>1</v>
       </c>
+      <c r="L19" s="0">
+        <v>1.9037964363741201e-05</v>
+      </c>
+      <c r="M19" s="0">
+        <v>21.639593561217623</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
@@ -902,6 +1024,12 @@
       <c r="K20" s="0">
         <v>1</v>
       </c>
+      <c r="L20" s="0">
+        <v>2.9804822730551707e-08</v>
+      </c>
+      <c r="M20" s="0">
+        <v>40.728748370983333</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
@@ -937,6 +1065,12 @@
       <c r="K21" s="0">
         <v>1</v>
       </c>
+      <c r="L21" s="0">
+        <v>0.0050532790873714225</v>
+      </c>
+      <c r="M21" s="0">
+        <v>8.483512651930397</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
@@ -972,6 +1106,12 @@
       <c r="K22" s="0">
         <v>1</v>
       </c>
+      <c r="L22" s="0">
+        <v>0.52475999502224147</v>
+      </c>
+      <c r="M22" s="0">
+        <v>0.40938240793386121</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
@@ -1007,6 +1147,12 @@
       <c r="K23" s="0">
         <v>1</v>
       </c>
+      <c r="L23" s="0">
+        <v>0.00087381814682843727</v>
+      </c>
+      <c r="M23" s="0">
+        <v>12.29768698448647</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
@@ -1041,6 +1187,12 @@
       </c>
       <c r="K24" s="0">
         <v>1</v>
+      </c>
+      <c r="L24" s="0">
+        <v>8.2866848301519554e-05</v>
+      </c>
+      <c r="M24" s="0">
+        <v>17.883697723718818</v>
       </c>
     </row>
     <row r="25">
@@ -1077,6 +1229,12 @@
       <c r="K25" s="0">
         <v>1</v>
       </c>
+      <c r="L25" s="0">
+        <v>0.10680206774112666</v>
+      </c>
+      <c r="M25" s="0">
+        <v>2.6821441289466019</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
@@ -1112,6 +1270,12 @@
       <c r="K26" s="0">
         <v>0</v>
       </c>
+      <c r="L26" s="0">
+        <v>0.015651550953533776</v>
+      </c>
+      <c r="M26" s="0">
+        <v>0.4026940229975135</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
@@ -1147,6 +1311,12 @@
       <c r="K27" s="0">
         <v>0</v>
       </c>
+      <c r="L27" s="0">
+        <v>6.3707260594425491e-07</v>
+      </c>
+      <c r="M27" s="0">
+        <v>31.131447908076005</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
@@ -1182,6 +1352,12 @@
       <c r="K28" s="0">
         <v>0</v>
       </c>
+      <c r="L28" s="0">
+        <v>0.51788710866703336</v>
+      </c>
+      <c r="M28" s="0">
+        <v>0.42316531686009668</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
@@ -1217,6 +1393,12 @@
       <c r="K29" s="0">
         <v>0</v>
       </c>
+      <c r="L29" s="0">
+        <v>0.25445086818006002</v>
+      </c>
+      <c r="M29" s="0">
+        <v>1.3243766212756993</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
@@ -1252,6 +1434,12 @@
       <c r="K30" s="0">
         <v>0</v>
       </c>
+      <c r="L30" s="0">
+        <v>0.35458586500134481</v>
+      </c>
+      <c r="M30" s="0">
+        <v>0.87062273747392427</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
@@ -1287,6 +1475,12 @@
       <c r="K31" s="0">
         <v>0</v>
       </c>
+      <c r="L31" s="0">
+        <v>0.28875930919129861</v>
+      </c>
+      <c r="M31" s="0">
+        <v>0.67431340717246246</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
@@ -1322,6 +1516,12 @@
       <c r="K32" s="0">
         <v>0</v>
       </c>
+      <c r="L32" s="0">
+        <v>0.51857668651447941</v>
+      </c>
+      <c r="M32" s="0">
+        <v>0.42176776082392098</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
@@ -1357,6 +1557,12 @@
       <c r="K33" s="0">
         <v>0</v>
       </c>
+      <c r="L33" s="0">
+        <v>0.38353981526739744</v>
+      </c>
+      <c r="M33" s="0">
+        <v>0.77077123142753989</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
@@ -1392,6 +1598,12 @@
       <c r="K34" s="0">
         <v>0</v>
       </c>
+      <c r="L34" s="0">
+        <v>0.31612897087781539</v>
+      </c>
+      <c r="M34" s="0">
+        <v>0.68920353971527826</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
@@ -1427,6 +1639,12 @@
       <c r="K35" s="0">
         <v>0</v>
       </c>
+      <c r="L35" s="0">
+        <v>0.28278506429731232</v>
+      </c>
+      <c r="M35" s="0">
+        <v>1.1750050331482469</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
@@ -1462,6 +1680,12 @@
       <c r="K36" s="0">
         <v>0</v>
       </c>
+      <c r="L36" s="0">
+        <v>0.10749475111401197</v>
+      </c>
+      <c r="M36" s="0">
+        <v>0.54857425926311065</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
@@ -1497,6 +1721,12 @@
       <c r="K37" s="0">
         <v>0</v>
       </c>
+      <c r="L37" s="0">
+        <v>0.35231513039407159</v>
+      </c>
+      <c r="M37" s="0">
+        <v>0.87893656518932572</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
@@ -1532,6 +1762,12 @@
       <c r="K38" s="0">
         <v>0</v>
       </c>
+      <c r="L38" s="0">
+        <v>0.23271607672041322</v>
+      </c>
+      <c r="M38" s="0">
+        <v>1.5626609901801569</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
@@ -1567,6 +1803,12 @@
       <c r="K39" s="0">
         <v>0</v>
       </c>
+      <c r="L39" s="0">
+        <v>0.22477006507260022</v>
+      </c>
+      <c r="M39" s="0">
+        <v>1.5050442812333489</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
@@ -1602,6 +1844,12 @@
       <c r="K40" s="0">
         <v>0</v>
       </c>
+      <c r="L40" s="0">
+        <v>0.0010242218650618183</v>
+      </c>
+      <c r="M40" s="0">
+        <v>11.940092341542162</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
@@ -1637,6 +1885,12 @@
       <c r="K41" s="0">
         <v>0</v>
       </c>
+      <c r="L41" s="0">
+        <v>0.51125745814367096</v>
+      </c>
+      <c r="M41" s="0">
+        <v>0.43677114826960411</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
@@ -1672,6 +1926,12 @@
       <c r="K42" s="0">
         <v>0</v>
       </c>
+      <c r="L42" s="0">
+        <v>0.68063049349558069</v>
+      </c>
+      <c r="M42" s="0">
+        <v>0.17110601089592067</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
@@ -1707,6 +1967,12 @@
       <c r="K43" s="0">
         <v>0</v>
       </c>
+      <c r="L43" s="0">
+        <v>0.011840715358962951</v>
+      </c>
+      <c r="M43" s="0">
+        <v>6.7466228097155856</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
@@ -1742,6 +2008,12 @@
       <c r="K44" s="0">
         <v>0</v>
       </c>
+      <c r="L44" s="0">
+        <v>0.13847244326686414</v>
+      </c>
+      <c r="M44" s="0">
+        <v>2.2555171670420493</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
@@ -1777,6 +2049,12 @@
       <c r="K45" s="0">
         <v>0</v>
       </c>
+      <c r="L45" s="0">
+        <v>0.053944581379353387</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0.48618563457995112</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
@@ -1812,6 +2090,12 @@
       <c r="K46" s="0">
         <v>0</v>
       </c>
+      <c r="L46" s="0">
+        <v>0.063531593923763396</v>
+      </c>
+      <c r="M46" s="0">
+        <v>2.009889364748557</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
@@ -1847,6 +2131,12 @@
       <c r="K47" s="0">
         <v>0</v>
       </c>
+      <c r="L47" s="0">
+        <v>0.26359814783146035</v>
+      </c>
+      <c r="M47" s="0">
+        <v>1.5188767286542639</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
@@ -1882,6 +2172,12 @@
       <c r="K48" s="0">
         <v>0</v>
       </c>
+      <c r="L48" s="0">
+        <v>0.043766858973133337</v>
+      </c>
+      <c r="M48" s="0">
+        <v>4.2457395125359456</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
@@ -1917,6 +2213,12 @@
       <c r="K49" s="0">
         <v>0</v>
       </c>
+      <c r="L49" s="0">
+        <v>0.033217572398606718</v>
+      </c>
+      <c r="M49" s="0">
+        <v>0.44996930770268268</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
@@ -1952,6 +2254,12 @@
       <c r="K50" s="0">
         <v>0</v>
       </c>
+      <c r="L50" s="0">
+        <v>0.22603831110560235</v>
+      </c>
+      <c r="M50" s="0">
+        <v>1.4967343165996188</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
@@ -1987,6 +2295,12 @@
       <c r="K51" s="0">
         <v>0</v>
       </c>
+      <c r="L51" s="0">
+        <v>0.091732352566521222</v>
+      </c>
+      <c r="M51" s="0">
+        <v>1.8838746049957995</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
@@ -2022,6 +2336,12 @@
       <c r="K52" s="0">
         <v>0</v>
       </c>
+      <c r="L52" s="0">
+        <v>0.19981622148749531</v>
+      </c>
+      <c r="M52" s="0">
+        <v>0.6206484512456989</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
@@ -2057,6 +2377,12 @@
       <c r="K53" s="0">
         <v>0</v>
       </c>
+      <c r="L53" s="0">
+        <v>0.027013781177575441</v>
+      </c>
+      <c r="M53" s="0">
+        <v>0.43601741098586089</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
@@ -2092,6 +2418,12 @@
       <c r="K54" s="0">
         <v>0</v>
       </c>
+      <c r="L54" s="0">
+        <v>0.084761876984754361</v>
+      </c>
+      <c r="M54" s="0">
+        <v>3.0737096675529862</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
@@ -2127,6 +2459,12 @@
       <c r="K55" s="0">
         <v>0</v>
       </c>
+      <c r="L55" s="0">
+        <v>0.081252485946917724</v>
+      </c>
+      <c r="M55" s="0">
+        <v>3.1464550112963892</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
@@ -2162,6 +2500,12 @@
       <c r="K56" s="0">
         <v>0</v>
       </c>
+      <c r="L56" s="0">
+        <v>0.048626982658208043</v>
+      </c>
+      <c r="M56" s="0">
+        <v>4.0543184020705416</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
@@ -2197,6 +2541,12 @@
       <c r="K57" s="0">
         <v>0</v>
       </c>
+      <c r="L57" s="0">
+        <v>0.24227424788197027</v>
+      </c>
+      <c r="M57" s="0">
+        <v>1.3951652955623326</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
@@ -2232,6 +2582,12 @@
       <c r="K58" s="0">
         <v>0</v>
       </c>
+      <c r="L58" s="0">
+        <v>0.98947723808961063</v>
+      </c>
+      <c r="M58" s="0">
+        <v>0.00017542257267018368</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
@@ -2267,6 +2623,12 @@
       <c r="K59" s="0">
         <v>0</v>
       </c>
+      <c r="L59" s="0">
+        <v>0.0071048525889218081</v>
+      </c>
+      <c r="M59" s="0">
+        <v>0.36172574499984539</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
@@ -2302,6 +2664,12 @@
       <c r="K60" s="0">
         <v>0</v>
       </c>
+      <c r="L60" s="0">
+        <v>0.57922962130253908</v>
+      </c>
+      <c r="M60" s="0">
+        <v>0.31091364454406933</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
@@ -2337,6 +2705,12 @@
       <c r="K61" s="0">
         <v>0</v>
       </c>
+      <c r="L61" s="0">
+        <v>0.10810928726810623</v>
+      </c>
+      <c r="M61" s="0">
+        <v>1.8275573869079906</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
@@ -2372,6 +2746,12 @@
       <c r="K62" s="0">
         <v>0</v>
       </c>
+      <c r="L62" s="0">
+        <v>0.79276728641820005</v>
+      </c>
+      <c r="M62" s="0">
+        <v>1.1034058931377237</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
@@ -2407,6 +2787,12 @@
       <c r="K63" s="0">
         <v>0</v>
       </c>
+      <c r="L63" s="0">
+        <v>0.28040038340483908</v>
+      </c>
+      <c r="M63" s="0">
+        <v>1.186826466513152</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
@@ -2442,6 +2828,12 @@
       <c r="K64" s="0">
         <v>0</v>
       </c>
+      <c r="L64" s="0">
+        <v>0.0049927450323955591</v>
+      </c>
+      <c r="M64" s="0">
+        <v>8.508650762862203</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
@@ -2477,6 +2869,12 @@
       <c r="K65" s="0">
         <v>0</v>
       </c>
+      <c r="L65" s="0">
+        <v>0.61951442826479819</v>
+      </c>
+      <c r="M65" s="0">
+        <v>0.24917275531847358</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
@@ -2512,6 +2910,12 @@
       <c r="K66" s="0">
         <v>0</v>
       </c>
+      <c r="L66" s="0">
+        <v>0.32392710315357276</v>
+      </c>
+      <c r="M66" s="0">
+        <v>1.4456416311997167</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
@@ -2547,6 +2951,12 @@
       <c r="K67" s="0">
         <v>0</v>
       </c>
+      <c r="L67" s="0">
+        <v>0.045284105962053282</v>
+      </c>
+      <c r="M67" s="0">
+        <v>4.1836071540067561</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
@@ -2582,6 +2992,12 @@
       <c r="K68" s="0">
         <v>0</v>
       </c>
+      <c r="L68" s="0">
+        <v>0.17692170516270189</v>
+      </c>
+      <c r="M68" s="0">
+        <v>1.8677227208475142</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
@@ -2617,6 +3033,12 @@
       <c r="K69" s="0">
         <v>0</v>
       </c>
+      <c r="L69" s="0">
+        <v>0.99090743166539552</v>
+      </c>
+      <c r="M69" s="0">
+        <v>1.0050219091703165</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
@@ -2652,6 +3074,12 @@
       <c r="K70" s="0">
         <v>0</v>
       </c>
+      <c r="L70" s="0">
+        <v>0.20176176297531856</v>
+      </c>
+      <c r="M70" s="0">
+        <v>1.6665130843437674</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
@@ -2687,6 +3115,12 @@
       <c r="K71" s="0">
         <v>0</v>
       </c>
+      <c r="L71" s="0">
+        <v>0.16482321304927194</v>
+      </c>
+      <c r="M71" s="0">
+        <v>1.9782230050853971</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
@@ -2722,6 +3156,12 @@
       <c r="K72" s="0">
         <v>0</v>
       </c>
+      <c r="L72" s="0">
+        <v>0.37077299242454276</v>
+      </c>
+      <c r="M72" s="0">
+        <v>0.71741926284954816</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
@@ -2757,6 +3197,12 @@
       <c r="K73" s="0">
         <v>0</v>
       </c>
+      <c r="L73" s="0">
+        <v>0.2096462036716531</v>
+      </c>
+      <c r="M73" s="0">
+        <v>1.608774061292771</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
@@ -2792,6 +3238,12 @@
       <c r="K74" s="0">
         <v>0</v>
       </c>
+      <c r="L74" s="0">
+        <v>0.83604922835154039</v>
+      </c>
+      <c r="M74" s="0">
+        <v>0.043208398892365746</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
@@ -2827,6 +3279,12 @@
       <c r="K75" s="0">
         <v>0</v>
       </c>
+      <c r="L75" s="0">
+        <v>0.4776573707082793</v>
+      </c>
+      <c r="M75" s="0">
+        <v>0.76863568348141931</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
@@ -2862,6 +3320,12 @@
       <c r="K76" s="0">
         <v>0</v>
       </c>
+      <c r="L76" s="0">
+        <v>0.63289883475360842</v>
+      </c>
+      <c r="M76" s="0">
+        <v>0.8380672625941209</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
@@ -2897,6 +3361,12 @@
       <c r="K77" s="0">
         <v>0</v>
       </c>
+      <c r="L77" s="0">
+        <v>0.36487024873779211</v>
+      </c>
+      <c r="M77" s="0">
+        <v>0.71445348666315778</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
@@ -2932,6 +3402,12 @@
       <c r="K78" s="0">
         <v>0</v>
       </c>
+      <c r="L78" s="0">
+        <v>0.34794664502136163</v>
+      </c>
+      <c r="M78" s="0">
+        <v>1.4199291352950729</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
@@ -2967,6 +3443,12 @@
       <c r="K79" s="0">
         <v>0</v>
       </c>
+      <c r="L79" s="0">
+        <v>0.36592300322208815</v>
+      </c>
+      <c r="M79" s="0">
+        <v>0.71498374149112021</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
@@ -3002,6 +3484,12 @@
       <c r="K80" s="0">
         <v>0</v>
       </c>
+      <c r="L80" s="0">
+        <v>0.3319601885567342</v>
+      </c>
+      <c r="M80" s="0">
+        <v>0.6975661275818692</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
@@ -3037,6 +3525,12 @@
       <c r="K81" s="0">
         <v>0</v>
       </c>
+      <c r="L81" s="0">
+        <v>0.5855632711456279</v>
+      </c>
+      <c r="M81" s="0">
+        <v>1.2257973770674342</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
@@ -3072,6 +3566,12 @@
       <c r="K82" s="0">
         <v>0</v>
       </c>
+      <c r="L82" s="0">
+        <v>0.31275911122967931</v>
+      </c>
+      <c r="M82" s="0">
+        <v>0.68740106445525118</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
@@ -3107,6 +3607,12 @@
       <c r="K83" s="0">
         <v>0</v>
       </c>
+      <c r="L83" s="0">
+        <v>0.03236317275843853</v>
+      </c>
+      <c r="M83" s="0">
+        <v>4.80339327756076</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
@@ -3142,6 +3648,12 @@
       <c r="K84" s="0">
         <v>0</v>
       </c>
+      <c r="L84" s="0">
+        <v>0.3587151510551389</v>
+      </c>
+      <c r="M84" s="0">
+        <v>0.71134160746089503</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
@@ -3177,6 +3689,12 @@
       <c r="K85" s="0">
         <v>0</v>
       </c>
+      <c r="L85" s="0">
+        <v>0.11325337929100232</v>
+      </c>
+      <c r="M85" s="0">
+        <v>2.5845004104041873</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
@@ -3212,6 +3730,12 @@
       <c r="K86" s="0">
         <v>0</v>
       </c>
+      <c r="L86" s="0">
+        <v>0.33985797140851865</v>
+      </c>
+      <c r="M86" s="0">
+        <v>1.4284031450438801</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
@@ -3247,6 +3771,12 @@
       <c r="K87" s="0">
         <v>0</v>
       </c>
+      <c r="L87" s="0">
+        <v>0.0051271108253447099</v>
+      </c>
+      <c r="M87" s="0">
+        <v>2.9062690608690098</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
@@ -3282,6 +3812,12 @@
       <c r="K88" s="0">
         <v>0</v>
       </c>
+      <c r="L88" s="0">
+        <v>0.47070820453966755</v>
+      </c>
+      <c r="M88" s="0">
+        <v>0.52707801591151826</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
@@ -3317,6 +3853,12 @@
       <c r="K89" s="0">
         <v>0</v>
       </c>
+      <c r="L89" s="0">
+        <v>0.85703850768011203</v>
+      </c>
+      <c r="M89" s="0">
+        <v>0.032737567001683454</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
@@ -3352,6 +3894,12 @@
       <c r="K90" s="0">
         <v>0</v>
       </c>
+      <c r="L90" s="0">
+        <v>0.23079877118144487</v>
+      </c>
+      <c r="M90" s="0">
+        <v>1.4660447862359247</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
@@ -3387,6 +3935,12 @@
       <c r="K91" s="0">
         <v>0</v>
       </c>
+      <c r="L91" s="0">
+        <v>0.70622132790525449</v>
+      </c>
+      <c r="M91" s="0">
+        <v>0.14346360815353487</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
@@ -3422,6 +3976,12 @@
       <c r="K92" s="0">
         <v>0</v>
       </c>
+      <c r="L92" s="0">
+        <v>0.48426524823317429</v>
+      </c>
+      <c r="M92" s="0">
+        <v>0.49547232388038687</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
@@ -3457,6 +4017,12 @@
       <c r="K93" s="0">
         <v>0</v>
       </c>
+      <c r="L93" s="0">
+        <v>0.066596713707228708</v>
+      </c>
+      <c r="M93" s="0">
+        <v>0.50370998376610909</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
@@ -3492,6 +4058,12 @@
       <c r="K94" s="0">
         <v>0</v>
       </c>
+      <c r="L94" s="0">
+        <v>0.44997843544955218</v>
+      </c>
+      <c r="M94" s="0">
+        <v>1.3258414850544891</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
@@ -3527,6 +4099,12 @@
       <c r="K95" s="0">
         <v>0</v>
       </c>
+      <c r="L95" s="0">
+        <v>0.05125769463202233</v>
+      </c>
+      <c r="M95" s="0">
+        <v>3.9591736208292772</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
@@ -3562,6 +4140,12 @@
       <c r="K96" s="0">
         <v>0</v>
       </c>
+      <c r="L96" s="0">
+        <v>0.78395880291417042</v>
+      </c>
+      <c r="M96" s="0">
+        <v>0.075854072789653296</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
@@ -3597,6 +4181,12 @@
       <c r="K97" s="0">
         <v>0</v>
       </c>
+      <c r="L97" s="0">
+        <v>0.16195400347406638</v>
+      </c>
+      <c r="M97" s="0">
+        <v>1.6885889912917023</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
@@ -3632,6 +4222,12 @@
       <c r="K98" s="0">
         <v>0</v>
       </c>
+      <c r="L98" s="0">
+        <v>0.056139991723807375</v>
+      </c>
+      <c r="M98" s="0">
+        <v>3.7958912023477418</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
@@ -3667,6 +4263,12 @@
       <c r="K99" s="0">
         <v>0</v>
       </c>
+      <c r="L99" s="0">
+        <v>0.0047986186277598286</v>
+      </c>
+      <c r="M99" s="0">
+        <v>8.5914791395320442</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
@@ -3702,6 +4304,12 @@
       <c r="K100" s="0">
         <v>0</v>
       </c>
+      <c r="L100" s="0">
+        <v>0.36265043913859368</v>
+      </c>
+      <c r="M100" s="0">
+        <v>1.4049696276060155</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
@@ -3737,6 +4345,12 @@
       <c r="K101" s="0">
         <v>0</v>
       </c>
+      <c r="L101" s="0">
+        <v>0.012741747485159006</v>
+      </c>
+      <c r="M101" s="0">
+        <v>0.39128209116628465</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
@@ -3772,6 +4386,12 @@
       <c r="K102" s="0">
         <v>0</v>
       </c>
+      <c r="L102" s="0">
+        <v>0.74706965338239984</v>
+      </c>
+      <c r="M102" s="0">
+        <v>1.1282161136306774</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
@@ -3807,6 +4427,12 @@
       <c r="K103" s="0">
         <v>0</v>
       </c>
+      <c r="L103" s="0">
+        <v>0.49390110964889028</v>
+      </c>
+      <c r="M103" s="0">
+        <v>0.7761021721597513</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
@@ -3842,6 +4468,12 @@
       <c r="K104" s="0">
         <v>0</v>
       </c>
+      <c r="L104" s="0">
+        <v>0.13300926645080036</v>
+      </c>
+      <c r="M104" s="0">
+        <v>2.3206478174043608</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
@@ -3877,6 +4509,12 @@
       <c r="K105" s="0">
         <v>0</v>
       </c>
+      <c r="L105" s="0">
+        <v>0.88017187251673956</v>
+      </c>
+      <c r="M105" s="0">
+        <v>0.022923814440688459</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
@@ -3912,6 +4550,12 @@
       <c r="K106" s="0">
         <v>0</v>
       </c>
+      <c r="L106" s="0">
+        <v>0.03175506529895588</v>
+      </c>
+      <c r="M106" s="0">
+        <v>4.8388624023373428</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
@@ -3947,6 +4591,12 @@
       <c r="K107" s="0">
         <v>0</v>
       </c>
+      <c r="L107" s="0">
+        <v>0.73378589029522268</v>
+      </c>
+      <c r="M107" s="0">
+        <v>1.1356225741682915</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
@@ -3982,6 +4632,12 @@
       <c r="K108" s="0">
         <v>0</v>
       </c>
+      <c r="L108" s="0">
+        <v>5.0805215591612466e-05</v>
+      </c>
+      <c r="M108" s="0">
+        <v>0.20834318271086447</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
@@ -4017,6 +4673,12 @@
       <c r="K109" s="0">
         <v>0</v>
       </c>
+      <c r="L109" s="0">
+        <v>0.0049311205302741161</v>
+      </c>
+      <c r="M109" s="0">
+        <v>0.34509883907885325</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
@@ -4052,6 +4714,12 @@
       <c r="K110" s="0">
         <v>0</v>
       </c>
+      <c r="L110" s="0">
+        <v>0.030465515453339375</v>
+      </c>
+      <c r="M110" s="0">
+        <v>0.444034435170299</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
@@ -4087,6 +4755,12 @@
       <c r="K111" s="0">
         <v>0</v>
       </c>
+      <c r="L111" s="0">
+        <v>0.004470332840056864</v>
+      </c>
+      <c r="M111" s="0">
+        <v>8.7398923541622473</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
@@ -4122,6 +4796,12 @@
       <c r="K112" s="0">
         <v>0</v>
       </c>
+      <c r="L112" s="0">
+        <v>0.3623388846407245</v>
+      </c>
+      <c r="M112" s="0">
+        <v>0.71317611457222219</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
@@ -4157,6 +4837,12 @@
       <c r="K113" s="0">
         <v>0</v>
       </c>
+      <c r="L113" s="0">
+        <v>0.026016834748084961</v>
+      </c>
+      <c r="M113" s="0">
+        <v>5.2144576988207314</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
@@ -4192,6 +4878,12 @@
       <c r="K114" s="0">
         <v>0</v>
       </c>
+      <c r="L114" s="0">
+        <v>0.25310802200005755</v>
+      </c>
+      <c r="M114" s="0">
+        <v>1.3319733771751774</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
@@ -4227,6 +4919,12 @@
       <c r="K115" s="0">
         <v>0</v>
       </c>
+      <c r="L115" s="0">
+        <v>0.64812102641679537</v>
+      </c>
+      <c r="M115" s="0">
+        <v>0.21042356142408886</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
@@ -4262,6 +4960,12 @@
       <c r="K116" s="0">
         <v>0</v>
       </c>
+      <c r="L116" s="0">
+        <v>0.057922470655001924</v>
+      </c>
+      <c r="M116" s="0">
+        <v>3.7400989895579584</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
@@ -4297,6 +5001,12 @@
       <c r="K117" s="0">
         <v>0</v>
       </c>
+      <c r="L117" s="0">
+        <v>0.20477407060293196</v>
+      </c>
+      <c r="M117" s="0">
+        <v>1.6441376559026058</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
@@ -4332,6 +5042,12 @@
       <c r="K118" s="0">
         <v>0</v>
       </c>
+      <c r="L118" s="0">
+        <v>0.67300331464306273</v>
+      </c>
+      <c r="M118" s="0">
+        <v>0.85557437081028143</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
@@ -4367,6 +5083,12 @@
       <c r="K119" s="0">
         <v>0</v>
       </c>
+      <c r="L119" s="0">
+        <v>0.28385548605553024</v>
+      </c>
+      <c r="M119" s="0">
+        <v>1.1697403651053524</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
@@ -4402,6 +5124,12 @@
       <c r="K120" s="0">
         <v>0</v>
       </c>
+      <c r="L120" s="0">
+        <v>0.0069383153001743277</v>
+      </c>
+      <c r="M120" s="0">
+        <v>7.8277150638174877</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
@@ -4437,6 +5165,12 @@
       <c r="K121" s="0">
         <v>0</v>
       </c>
+      <c r="L121" s="0">
+        <v>0.10594147341694665</v>
+      </c>
+      <c r="M121" s="0">
+        <v>0.54709180854606343</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
@@ -4472,6 +5206,12 @@
       <c r="K122" s="0">
         <v>0</v>
       </c>
+      <c r="L122" s="0">
+        <v>0.12414886188486585</v>
+      </c>
+      <c r="M122" s="0">
+        <v>2.4330643089372406</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
@@ -4507,6 +5247,12 @@
       <c r="K123" s="0">
         <v>0</v>
       </c>
+      <c r="L123" s="0">
+        <v>0.49962167005815006</v>
+      </c>
+      <c r="M123" s="0">
+        <v>0.77871666931627703</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
@@ -4542,6 +5288,12 @@
       <c r="K124" s="0">
         <v>0</v>
       </c>
+      <c r="L124" s="0">
+        <v>0.26598985471722292</v>
+      </c>
+      <c r="M124" s="0">
+        <v>1.2611112301087131</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
@@ -4577,6 +5329,12 @@
       <c r="K125" s="0">
         <v>0</v>
       </c>
+      <c r="L125" s="0">
+        <v>0.041027273571029331</v>
+      </c>
+      <c r="M125" s="0">
+        <v>4.3640597108529971</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
@@ -4612,6 +5370,12 @@
       <c r="K126" s="0">
         <v>0</v>
       </c>
+      <c r="L126" s="0">
+        <v>0.11032972439689885</v>
+      </c>
+      <c r="M126" s="0">
+        <v>0.55124621607573132</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
@@ -4647,6 +5411,12 @@
       <c r="K127" s="0">
         <v>0</v>
       </c>
+      <c r="L127" s="0">
+        <v>0.22501409514209903</v>
+      </c>
+      <c r="M127" s="0">
+        <v>1.5034408629805209</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
@@ -4682,6 +5452,12 @@
       <c r="K128" s="0">
         <v>0</v>
       </c>
+      <c r="L128" s="0">
+        <v>0.52940542428588444</v>
+      </c>
+      <c r="M128" s="0">
+        <v>0.79221645634542381</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
@@ -4717,6 +5493,12 @@
       <c r="K129" s="0">
         <v>0</v>
       </c>
+      <c r="L129" s="0">
+        <v>0.17042075321645367</v>
+      </c>
+      <c r="M129" s="0">
+        <v>1.9259545160802316</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
@@ -4752,6 +5534,12 @@
       <c r="K130" s="0">
         <v>0</v>
       </c>
+      <c r="L130" s="0">
+        <v>0.66083633447071</v>
+      </c>
+      <c r="M130" s="0">
+        <v>0.19446687932616091</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
@@ -4787,6 +5575,12 @@
       <c r="K131" s="0">
         <v>0</v>
       </c>
+      <c r="L131" s="0">
+        <v>0.12257617202891925</v>
+      </c>
+      <c r="M131" s="0">
+        <v>0.562329950079279</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
@@ -4822,6 +5616,12 @@
       <c r="K132" s="0">
         <v>0</v>
       </c>
+      <c r="L132" s="0">
+        <v>0.72794979301927731</v>
+      </c>
+      <c r="M132" s="0">
+        <v>0.12215830376508424</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
@@ -4857,6 +5657,12 @@
       <c r="K133" s="0">
         <v>0</v>
       </c>
+      <c r="L133" s="0">
+        <v>0.4936976297241733</v>
+      </c>
+      <c r="M133" s="0">
+        <v>0.47433809487059181</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
@@ -4892,6 +5698,12 @@
       <c r="K134" s="0">
         <v>0</v>
       </c>
+      <c r="L134" s="0">
+        <v>0.082089240811563477</v>
+      </c>
+      <c r="M134" s="0">
+        <v>0.52237197208515951</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
@@ -4927,6 +5739,12 @@
       <c r="K135" s="0">
         <v>0</v>
       </c>
+      <c r="L135" s="0">
+        <v>0.40618658330737034</v>
+      </c>
+      <c r="M135" s="0">
+        <v>1.3636504794025868</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
@@ -4962,6 +5780,12 @@
       <c r="K136" s="0">
         <v>0</v>
       </c>
+      <c r="L136" s="0">
+        <v>0.3341390449353463</v>
+      </c>
+      <c r="M136" s="0">
+        <v>0.94825691301864756</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
@@ -4997,6 +5821,12 @@
       <c r="K137" s="0">
         <v>0</v>
       </c>
+      <c r="L137" s="0">
+        <v>0.17677379446018152</v>
+      </c>
+      <c r="M137" s="0">
+        <v>1.6583266532545307</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
@@ -5032,6 +5862,12 @@
       <c r="K138" s="0">
         <v>0</v>
       </c>
+      <c r="L138" s="0">
+        <v>0.36203513686503186</v>
+      </c>
+      <c r="M138" s="0">
+        <v>0.84386113340087943</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
@@ -5067,6 +5903,12 @@
       <c r="K139" s="0">
         <v>0</v>
       </c>
+      <c r="L139" s="0">
+        <v>0.34149995374154446</v>
+      </c>
+      <c r="M139" s="0">
+        <v>0.70252665323426145</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
@@ -5102,6 +5944,12 @@
       <c r="K140" s="0">
         <v>0</v>
       </c>
+      <c r="L140" s="0">
+        <v>0.6320520016240313</v>
+      </c>
+      <c r="M140" s="0">
+        <v>1.1958218312221329</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
@@ -5137,6 +5985,12 @@
       <c r="K141" s="0">
         <v>0</v>
       </c>
+      <c r="L141" s="0">
+        <v>0.48189184084663272</v>
+      </c>
+      <c r="M141" s="0">
+        <v>0.50089916453717343</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
@@ -5172,6 +6026,12 @@
       <c r="K142" s="0">
         <v>0</v>
       </c>
+      <c r="L142" s="0">
+        <v>0.80110249618607155</v>
+      </c>
+      <c r="M142" s="0">
+        <v>0.064038718615196583</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
@@ -5207,6 +6067,12 @@
       <c r="K143" s="0">
         <v>0</v>
       </c>
+      <c r="L143" s="0">
+        <v>0.060164765283244416</v>
+      </c>
+      <c r="M143" s="0">
+        <v>3.6725163303133921</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
@@ -5242,6 +6108,12 @@
       <c r="K144" s="0">
         <v>0</v>
       </c>
+      <c r="L144" s="0">
+        <v>0.77365506304573795</v>
+      </c>
+      <c r="M144" s="0">
+        <v>0.89939329340679897</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
@@ -5277,6 +6149,12 @@
       <c r="K145" s="0">
         <v>0</v>
       </c>
+      <c r="L145" s="0">
+        <v>0.33220325716425259</v>
+      </c>
+      <c r="M145" s="0">
+        <v>0.95594288841196173</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
@@ -5312,6 +6190,12 @@
       <c r="K146" s="0">
         <v>0</v>
       </c>
+      <c r="L146" s="0">
+        <v>0.20800954417586604</v>
+      </c>
+      <c r="M146" s="0">
+        <v>1.6205418802128164</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
@@ -5347,6 +6231,12 @@
       <c r="K147" s="0">
         <v>0</v>
       </c>
+      <c r="L147" s="0">
+        <v>0.90114344332631335</v>
+      </c>
+      <c r="M147" s="0">
+        <v>1.0480394104557436</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
@@ -5382,6 +6272,12 @@
       <c r="K148" s="0">
         <v>0</v>
       </c>
+      <c r="L148" s="0">
+        <v>0.063107596731112658</v>
+      </c>
+      <c r="M148" s="0">
+        <v>3.5878796546710938</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
@@ -5417,6 +6313,12 @@
       <c r="K149" s="0">
         <v>0</v>
       </c>
+      <c r="L149" s="0">
+        <v>0.01201137181124075</v>
+      </c>
+      <c r="M149" s="0">
+        <v>0.38811025082555695</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
@@ -5452,6 +6354,12 @@
       <c r="K150" s="0">
         <v>0</v>
       </c>
+      <c r="L150" s="0">
+        <v>0.94322146206660062</v>
+      </c>
+      <c r="M150" s="0">
+        <v>0.0051158929225069288</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
@@ -5487,6 +6395,12 @@
       <c r="K151" s="0">
         <v>0</v>
       </c>
+      <c r="L151" s="0">
+        <v>0.55882358965709955</v>
+      </c>
+      <c r="M151" s="0">
+        <v>1.2438987805502757</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
@@ -5522,6 +6436,12 @@
       <c r="K152" s="0">
         <v>0</v>
       </c>
+      <c r="L152" s="0">
+        <v>0.22439810805893068</v>
+      </c>
+      <c r="M152" s="0">
+        <v>1.5074923556771453</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
@@ -5557,6 +6477,12 @@
       <c r="K153" s="0">
         <v>0</v>
       </c>
+      <c r="L153" s="0">
+        <v>0.25100802806919165</v>
+      </c>
+      <c r="M153" s="0">
+        <v>0.65268791273045812</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
@@ -5592,6 +6518,12 @@
       <c r="K154" s="0">
         <v>0</v>
       </c>
+      <c r="L154" s="0">
+        <v>0.0037576104027197636</v>
+      </c>
+      <c r="M154" s="0">
+        <v>0.33352473709515634</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
@@ -5627,6 +6559,12 @@
       <c r="K155" s="0">
         <v>0</v>
       </c>
+      <c r="L155" s="0">
+        <v>0.75648257920294903</v>
+      </c>
+      <c r="M155" s="0">
+        <v>0.097061923005201695</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
